--- a/3.results/model_selection/sterne_caugek_HR_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/sterne_caugek_HR_3_blocks_assemblage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680FB19-4C11-4EFB-8ED7-2797B0FB649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ABA7F7-FC78-415B-91AF-378A4B3C5A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blocks" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -256,66 +256,6 @@
         <color rgb="FFFFB6C1"/>
         <name val="Calibri"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -624,12 +564,12 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,21 +664,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1344.6</v>
+        <v>1234.3</v>
       </c>
       <c r="D2" s="1">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E2" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1">
         <v>0.56999999999999995</v>
@@ -750,7 +690,7 @@
         <v>0.91</v>
       </c>
       <c r="I2" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
         <v>563</v>
@@ -759,10 +699,10 @@
         <v>123</v>
       </c>
       <c r="L2" s="1">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M2" s="1">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="N2" s="1">
         <v>572</v>
@@ -771,16 +711,16 @@
         <v>124</v>
       </c>
       <c r="P2" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q2" s="1">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.31</v>
+        <v>-1.32</v>
       </c>
       <c r="S2" s="1">
-        <v>-0.83</v>
+        <v>-0.81</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -799,33 +739,33 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>1.02</v>
+        <v>1.002</v>
       </c>
       <c r="C3" s="1">
-        <v>676.5</v>
+        <v>734.2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J3" s="1">
         <v>536</v>
@@ -843,46 +783,54 @@
         <v>540</v>
       </c>
       <c r="O3" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P3" s="1">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="1">
-        <v>1051</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+        <v>1050</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-0.6</v>
+      </c>
       <c r="T3" s="1">
-        <v>2.76</v>
+        <v>2.11</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <v>-0.62</v>
+        <v>-1.08</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Y3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="AA3" s="1">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="C4" s="1">
-        <v>860.5</v>
+        <v>937.7</v>
       </c>
       <c r="D4" s="1">
         <v>0.68</v>
@@ -894,7 +842,7 @@
         <v>0.59</v>
       </c>
       <c r="G4" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
         <v>0.94</v>
@@ -921,47 +869,63 @@
         <v>122</v>
       </c>
       <c r="P4" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="1">
-        <v>1083</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+        <v>1082</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.49</v>
+      </c>
       <c r="U4" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="V4" s="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-0.21</v>
+      </c>
       <c r="W4" s="1">
-        <v>-1.56</v>
+        <v>-0.63</v>
       </c>
       <c r="X4" s="1">
-        <v>-1.22</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+        <v>-1.02</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.44</v>
+      </c>
       <c r="AB4" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="AC4" s="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.53</v>
+      </c>
       <c r="AD4" s="1">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="AE4" s="1">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1">
-        <v>1.008</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>603.5</v>
+        <v>765.6</v>
       </c>
       <c r="D5" s="1">
         <v>0.72</v>
@@ -973,13 +937,13 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H5" s="1">
         <v>0.95</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J5" s="1">
         <v>536</v>
@@ -1000,72 +964,76 @@
         <v>116</v>
       </c>
       <c r="P5" s="1">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="1">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.43</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.61</v>
-      </c>
-      <c r="T5" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+        <v>-0.67</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>-1.64</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1.1100000000000001</v>
+      </c>
       <c r="Y5" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0229999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>900.2</v>
+        <v>839.8</v>
       </c>
       <c r="D6" s="1">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="E6" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F6" s="1">
         <v>0.59</v>
       </c>
       <c r="G6" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="H6" s="1">
         <v>0.94</v>
       </c>
       <c r="I6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
@@ -1074,10 +1042,10 @@
         <v>414</v>
       </c>
       <c r="M6" s="1">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N6" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O6" s="1">
         <v>119</v>
@@ -1086,58 +1054,46 @@
         <v>402</v>
       </c>
       <c r="Q6" s="1">
-        <v>1074</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-0.67</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
-        <v>-1.66</v>
-      </c>
-      <c r="X6" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0.35</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>1.006</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1045.5</v>
+        <v>1099.8</v>
       </c>
       <c r="D7" s="1">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
         <v>0.6</v>
@@ -1149,7 +1105,7 @@
         <v>0.95</v>
       </c>
       <c r="I7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <v>532</v>
@@ -1178,7 +1134,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U7" s="1">
         <v>0.37</v>
@@ -1187,7 +1143,7 @@
         <v>-0.32</v>
       </c>
       <c r="W7" s="1">
-        <v>-0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="X7" s="1">
         <v>-0.85</v>
@@ -1195,13 +1151,13 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AB7" s="1">
         <v>0.26</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AD7" s="1">
         <v>0.31</v>
@@ -1210,18 +1166,18 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="C8" s="1">
-        <v>976.2</v>
+        <v>873.5</v>
       </c>
       <c r="D8" s="1">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E8" s="1">
         <v>0.5</v>
@@ -1239,7 +1195,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K8" s="1">
         <v>120</v>
@@ -1248,7 +1204,7 @@
         <v>408</v>
       </c>
       <c r="M8" s="1">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="N8" s="1">
         <v>541</v>
@@ -1262,87 +1218,44 @@
       <c r="Q8" s="1">
         <v>1054</v>
       </c>
-      <c r="R8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-0.21</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1.47</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="V8" s="1">
-        <v>-0.23</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>-0.63</v>
+        <v>-1.55</v>
       </c>
       <c r="X8" s="1">
-        <v>-1.02</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0.44</v>
-      </c>
+        <v>-1.23</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0.55000000000000004</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="AC8" s="1"/>
       <c r="AD8" s="1">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="AE8" s="1">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="D2:I8">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>J2&lt;534</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1351,11 +1264,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>J2&lt;537</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>K2&lt;121</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1364,11 +1277,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;123</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>L2&lt;409</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1377,11 +1290,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>L2&lt;411</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>M2&lt;1061</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,11 +1303,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;1063</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>N2&lt;541</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1403,11 +1316,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>N2&lt;543</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O8">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>O2&lt;119</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1416,11 +1329,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>O2&lt;121</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>P2&lt;392</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1429,11 +1342,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;396</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>Q2&lt;1051</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1442,9 +1355,6 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Q2&lt;1055</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
